--- a/Mifos Automation Excels/Client/1112-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/1112-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
@@ -139,7 +139,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,12 +164,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -183,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -191,7 +185,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -559,10 +552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -572,7 +565,7 @@
     <col min="5" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -592,86 +585,83 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>10000</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>833.33</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
         <v>9166.67</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>833.33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>662.51</v>
-      </c>
-      <c r="B3" s="7">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>662.5</v>
+      </c>
+      <c r="B3" s="6">
         <v>100</v>
       </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>562.51</v>
-      </c>
-      <c r="F3" s="7">
-        <v>95.84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G7" s="5"/>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>562.5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>95.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -683,7 +673,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -750,547 +740,547 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="9">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="8">
         <v>42005</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5">
         <v>10000</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>31</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>42036</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>42050</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="7">
+      <c r="E3" s="9"/>
+      <c r="F3" s="6">
         <v>833.33</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>9166.67</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>100</v>
       </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
         <v>933.33</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>933.33</v>
       </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>933.33</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>28</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>42064</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <v>833.33</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>8333.34</v>
       </c>
-      <c r="H4" s="7">
-        <v>95.84</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>929.17</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>929.17</v>
+      <c r="H4" s="6">
+        <v>95.83</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>929.16</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>929.16</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>31</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>42095</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>833.33</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>7500.01</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>91.67</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>925</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
         <v>925</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>30</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>42125</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <v>833.33</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>6666.68</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>75</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
         <v>908.33</v>
       </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
         <v>908.33</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>31</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>42156</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
         <v>833.33</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>5833.35</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>66.67</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <v>900</v>
       </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
         <v>900</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>30</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>42186</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
         <v>833.33</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>5000.0200000000004</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>58.33</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
         <v>891.66</v>
       </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
         <v>891.66</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>31</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>42217</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <v>833.33</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>4166.6899999999996</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>50</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
         <v>883.33</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
         <v>883.33</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>31</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>42248</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
         <v>833.33</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>3333.36</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>41.67</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
         <v>875</v>
       </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
         <v>875</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>30</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>42278</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
         <v>833.33</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>2500.0300000000002</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>33.33</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
         <v>866.66</v>
       </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
         <v>866.66</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>31</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>42309</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
         <v>833.33</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>1666.7</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>25</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
         <v>858.33</v>
       </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
         <v>858.33</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>30</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>42339</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
         <v>833.33</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>833.37</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>16.670000000000002</v>
       </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
         <v>850</v>
       </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
         <v>850</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>31</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>42370</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
         <v>833.37</v>
       </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <v>8.33</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
         <v>841.7</v>
       </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
         <v>841.7</v>
       </c>
     </row>
@@ -1305,7 +1295,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1321,98 +1311,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>2622</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42050</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>933.33</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>833.33</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>100</v>
       </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15">
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
         <v>9166.67</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>2621</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>10000</v>
       </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
         <v>10000</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/1112-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/1112-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -18,10 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
-  <si>
-    <t>click</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>makerepayment</t>
   </si>
@@ -105,6 +102,21 @@
   </si>
   <si>
     <t>Loan Balance</t>
+  </si>
+  <si>
+    <t>clickonmakerepayment</t>
+  </si>
+  <si>
+    <t>repaymenttransactiondate</t>
+  </si>
+  <si>
+    <t>Entry ID</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Head Office</t>
   </si>
 </sst>
 </file>
@@ -171,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -194,6 +206,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,7 +527,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -510,15 +538,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3">
         <v>42050</v>
@@ -546,22 +574,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -652,10 +680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -675,52 +703,53 @@
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="9">
@@ -745,9 +774,9 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -788,11 +817,11 @@
       <c r="N3" s="7">
         <v>933.33</v>
       </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -831,11 +860,11 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="7">
+      <c r="P4" s="7">
         <v>929.17</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -874,11 +903,11 @@
       <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="7">
+      <c r="P5" s="7">
         <v>925</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -917,11 +946,11 @@
       <c r="N6" s="7">
         <v>0</v>
       </c>
-      <c r="O6" s="7">
+      <c r="P6" s="7">
         <v>908.33</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -960,11 +989,11 @@
       <c r="N7" s="7">
         <v>0</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1003,11 +1032,11 @@
       <c r="N8" s="7">
         <v>0</v>
       </c>
-      <c r="O8" s="7">
+      <c r="P8" s="7">
         <v>891.66</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1046,11 +1075,11 @@
       <c r="N9" s="7">
         <v>0</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <v>883.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1089,11 +1118,11 @@
       <c r="N10" s="7">
         <v>0</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="7">
         <v>875</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1132,11 +1161,11 @@
       <c r="N11" s="7">
         <v>0</v>
       </c>
-      <c r="O11" s="7">
+      <c r="P11" s="7">
         <v>866.66</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1175,11 +1204,11 @@
       <c r="N12" s="7">
         <v>0</v>
       </c>
-      <c r="O12" s="7">
+      <c r="P12" s="7">
         <v>858.33</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1218,11 +1247,11 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="7">
+      <c r="P13" s="7">
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1261,7 +1290,7 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
+      <c r="P14" s="7">
         <v>841.7</v>
       </c>
     </row>
@@ -1273,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1291,97 +1320,101 @@
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>2622</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="14">
         <v>42050</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12">
+        <v>933.33</v>
+      </c>
+      <c r="F2" s="12">
+        <v>833.33</v>
+      </c>
+      <c r="G2" s="12">
+        <v>100</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>9166.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>2621</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="14">
+        <v>42005</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
-        <v>933.33</v>
-      </c>
-      <c r="D2" s="7">
-        <v>833.33</v>
-      </c>
-      <c r="E2" s="7">
-        <v>100</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>9166.67</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>42005</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="E3" s="16">
         <v>10000</v>
       </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1404,7 +1437,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3">
         <v>42060</v>
@@ -1412,7 +1445,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>888</v>

--- a/Mifos Automation Excels/Client/1112-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/1112-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -122,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -226,6 +231,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -273,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,9 +314,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,6 +366,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -670,10 +712,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -689,11 +731,12 @@
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -731,15 +774,16 @@
       <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="8">
@@ -765,8 +809,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -804,14 +849,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
         <v>933.33</v>
       </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -847,14 +893,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>929.16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -890,14 +937,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>925</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -933,14 +981,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>908.33</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -976,14 +1025,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1019,14 +1069,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>891.66</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1062,14 +1113,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>883.33</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1105,14 +1157,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>875</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1148,14 +1201,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>866.66</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1191,14 +1245,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>858.33</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1234,14 +1289,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1277,10 +1333,11 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>841.7</v>
       </c>
     </row>
@@ -1294,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/1112-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/1112-MS-EPP-DB-SAR-REC-NON-RNI-CTRFD-DL-MD-TR-1-LateRepayment-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="439" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -127,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -281,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,26 +309,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,23 +344,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -714,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
